--- a/medicine/Psychotrope/Brasserie_De_Vlier/Brasserie_De_Vlier.xlsx
+++ b/medicine/Psychotrope/Brasserie_De_Vlier/Brasserie_De_Vlier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie De Vlier (en néerlandais : Brouwerij De Vlier) est une brasserie située dans la commune de Holsbeek en province du Brabant flamand (Belgique). 
@@ -512,9 +524,11 @@
           <t>Historique de la brasserie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie voit le jour le 10 mars 2008 sous la forme d'une SPRL. Elle est créée par Marc Andries, un ingénieur en chimie et agriculture, option biotechnologie diplômé à la Vrije Universiteit Brussel (VUB). Avant la création de son entreprise, Marc Andries avait déjà travaillé dans le domaine brassicole auprès de l'entreprise Meura (matériel pour brasseries), à la Brasserie d'Achouffe en 1998 et 1999 et à la Brasserie Haacht de 1999 à 2003[1]. La brasserie se trouve initialement à Vlierbeek, un hameau de Kessel-Lo et prend le nom de Brouwerij De Vlier. La première bière produite s'appelle Kessel Blond. Mais, très vite, il apparaît que l'emplacement n'est pas idéal et la brasserie déménage à Holsbeek à la Leuvensebaan (chaussée de Louvain) en automne 2009. Afin d'augmenter la production, la brasserie achète deux cuves de fermentation de 10 hectolitres. La brasserie a l'originalité de produire trois bières bruts équivalant aux types sec, demi-sec et rosé. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie voit le jour le 10 mars 2008 sous la forme d'une SPRL. Elle est créée par Marc Andries, un ingénieur en chimie et agriculture, option biotechnologie diplômé à la Vrije Universiteit Brussel (VUB). Avant la création de son entreprise, Marc Andries avait déjà travaillé dans le domaine brassicole auprès de l'entreprise Meura (matériel pour brasseries), à la Brasserie d'Achouffe en 1998 et 1999 et à la Brasserie Haacht de 1999 à 2003. La brasserie se trouve initialement à Vlierbeek, un hameau de Kessel-Lo et prend le nom de Brouwerij De Vlier. La première bière produite s'appelle Kessel Blond. Mais, très vite, il apparaît que l'emplacement n'est pas idéal et la brasserie déménage à Holsbeek à la Leuvensebaan (chaussée de Louvain) en automne 2009. Afin d'augmenter la production, la brasserie achète deux cuves de fermentation de 10 hectolitres. La brasserie a l'originalité de produire trois bières bruts équivalant aux types sec, demi-sec et rosé. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Principales bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La brasserie produit des bières traditionnelles principalement commercialisées en bouteilles de 75 cl.
 Kessel Blond, une bière blonde de fermentation haute titrant 7,5 % en volume d'alcool.
